--- a/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,65</t>
+          <t>-6,71; 0,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,7</t>
+          <t>-4,09; 4,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 2,88</t>
+          <t>-8,39; 3,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,62</t>
+          <t>-5,27; 0,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 486,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 185,26</t>
+          <t>-90,89; 204,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,03</t>
+          <t>-0,04; 5,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,91</t>
+          <t>-3,14; 1,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,01</t>
+          <t>-2,88; 2,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,91</t>
+          <t>-1,91; 1,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 203,7</t>
+          <t>-4,99; 211,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 55,25</t>
+          <t>-48,45; 50,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,51; 59,98</t>
+          <t>-48,4; 69,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 344,74</t>
+          <t>-69,83; 313,39</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,17</t>
+          <t>-1,72; 2,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,57</t>
+          <t>-0,48; 3,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,93</t>
+          <t>-1,41; 2,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,24</t>
+          <t>-1,21; 1,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 65,2</t>
+          <t>-24,66; 59,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 104,53</t>
+          <t>-8,95; 100,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 66,57</t>
+          <t>-30,98; 76,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 93,89</t>
+          <t>-42,54; 96,26</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,4</t>
+          <t>-0,28; 4,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,23</t>
+          <t>0,34; 5,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,97</t>
+          <t>-2,17; 2,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,35</t>
+          <t>-1,91; 2,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 170,91</t>
+          <t>-7,3; 174,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,89; 127,44</t>
+          <t>3,88; 124,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 61,81</t>
+          <t>-29,8; 58,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,99; 120,36</t>
+          <t>-50,02; 112,67</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,66</t>
+          <t>-1,72; 2,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,28</t>
+          <t>-0,41; 3,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,23</t>
+          <t>-1,1; 2,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,5</t>
+          <t>-1,34; 1,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 57,01</t>
+          <t>-26,08; 57,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 107,63</t>
+          <t>-9,46; 101,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 89,14</t>
+          <t>-27,3; 87,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 73,02</t>
+          <t>-37,14; 96,58</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,26</t>
+          <t>0,08; 2,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,49</t>
+          <t>0,42; 2,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,26</t>
+          <t>-0,73; 1,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,97</t>
+          <t>-0,63; 0,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,77</t>
+          <t>1,51; 58,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 58,88</t>
+          <t>7,83; 60,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 32,95</t>
+          <t>-15,28; 35,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 51,79</t>
+          <t>-21,92; 50,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 0,74</t>
+          <t>-6,76; 0,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 4,63</t>
+          <t>-3,83; 5,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 3,29</t>
+          <t>-8,99; 3,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 911,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-90,89; 204,78</t>
+          <t>-90,57; 192,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 5,14</t>
+          <t>-0,0; 5,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,84</t>
+          <t>-2,98; 1,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,14</t>
+          <t>-2,87; 2,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 211,34</t>
+          <t>-2,08; 217,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,45; 50,7</t>
+          <t>-48,23; 48,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 69,97</t>
+          <t>-49,52; 69,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,83</t>
+          <t>-1,56; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,54</t>
+          <t>-0,53; 3,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,11</t>
+          <t>-1,24; 2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 59,17</t>
+          <t>-22,49; 62,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 100,64</t>
+          <t>-9,76; 102,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 76,8</t>
+          <t>-28,06; 73,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,5</t>
+          <t>-0,37; 4,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,99</t>
+          <t>0,31; 6,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,84</t>
+          <t>-2,11; 2,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 174,3</t>
+          <t>-8,0; 166,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 124,19</t>
+          <t>3,8; 129,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 58,11</t>
+          <t>-29,08; 56,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 2,61</t>
+          <t>-1,66; 2,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,2</t>
+          <t>-0,5; 3,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,24</t>
+          <t>-1,17; 2,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 57,42</t>
+          <t>-24,44; 56,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 101,5</t>
+          <t>-12,04; 95,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 87,31</t>
+          <t>-28,56; 95,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,38</t>
+          <t>0,1; 2,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,6</t>
+          <t>0,37; 2,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,38</t>
+          <t>-0,78; 1,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 58,0</t>
+          <t>1,38; 54,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 60,71</t>
+          <t>5,8; 59,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 35,85</t>
+          <t>-15,54; 31,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 0,38</t>
+          <t>-6,48; 0,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 5,3</t>
+          <t>-3,56; 4,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 3,65</t>
+          <t>-8,57; 2,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 0,55</t>
+          <t>-5,91; 0,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 911,8</t>
+          <t>-100,0; 486,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-90,57; 192,29</t>
+          <t>-89,4; 185,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 5,17</t>
+          <t>-0,27; 5,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,89</t>
+          <t>-2,93; 1,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,17</t>
+          <t>-2,94; 2,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,7</t>
+          <t>-2,05; 1,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 217,9</t>
+          <t>-8,09; 203,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,23; 48,69</t>
+          <t>-47,48; 55,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 69,31</t>
+          <t>-49,51; 59,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,83; 313,39</t>
+          <t>-78,28; 344,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,0</t>
+          <t>-1,57; 3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,64</t>
+          <t>-0,44; 3,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,06</t>
+          <t>-1,48; 1,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,25</t>
+          <t>-1,27; 1,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 62,94</t>
+          <t>-22,69; 65,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 102,12</t>
+          <t>-6,73; 104,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 73,53</t>
+          <t>-32,9; 66,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 96,26</t>
+          <t>-46,63; 93,89</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,4</t>
+          <t>-0,32; 4,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,01</t>
+          <t>0,77; 6,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,81</t>
+          <t>-2,24; 2,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,29</t>
+          <t>-1,94; 2,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 166,86</t>
+          <t>-8,72; 170,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 129,93</t>
+          <t>9,89; 127,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 56,51</t>
+          <t>-30,98; 61,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,02; 112,67</t>
+          <t>-48,99; 120,36</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,57</t>
+          <t>-1,59; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,2</t>
+          <t>-0,41; 3,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,4</t>
+          <t>-1,03; 2,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,71</t>
+          <t>-1,56; 1,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 56,88</t>
+          <t>-23,99; 57,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 95,24</t>
+          <t>-9,13; 107,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 95,61</t>
+          <t>-24,6; 89,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 96,58</t>
+          <t>-41,71; 73,02</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,31</t>
+          <t>0,06; 2,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,59</t>
+          <t>0,21; 2,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,2</t>
+          <t>-0,78; 1,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,94</t>
+          <t>-0,6; 0,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 54,33</t>
+          <t>1,01; 52,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,8; 59,76</t>
+          <t>3,55; 58,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 31,24</t>
+          <t>-16,12; 32,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 50,06</t>
+          <t>-22,73; 51,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-72,89%</t>
+          <t>51,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-37,62%</t>
+          <t>-13,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-74,95%</t>
+          <t>-4,78%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,65</t>
+          <t>-0,4; 4,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,7</t>
+          <t>-2,7; 1,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 2,88</t>
+          <t>-2,95; 1,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 0,62</t>
+          <t>-3,25; 1,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,41; 163,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 486,17</t>
+          <t>-46,72; 55,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-89,4; 185,26</t>
+          <t>-50,44; 54,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,08; 183,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>69,81%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,04%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,95%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>26,59%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,03</t>
+          <t>-1,57; 3,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,91</t>
+          <t>-0,44; 3,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 2,01</t>
+          <t>-1,48; 1,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,91</t>
+          <t>-0,94; 1,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 203,7</t>
+          <t>-22,69; 65,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 55,25</t>
+          <t>-6,73; 104,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,51; 59,98</t>
+          <t>-32,9; 66,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 344,74</t>
+          <t>-35,93; 181,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>56,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,63%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,17</t>
+          <t>-0,32; 4,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,57</t>
+          <t>0,77; 6,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,93</t>
+          <t>-2,24; 2,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,24</t>
+          <t>-2,54; 2,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 65,2</t>
+          <t>-8,72; 170,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 104,53</t>
+          <t>9,89; 127,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 66,57</t>
+          <t>-30,98; 61,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 93,89</t>
+          <t>-61,57; 104,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>1,17%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,4</t>
+          <t>-1,59; 2,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,23</t>
+          <t>-0,41; 3,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,97</t>
+          <t>-1,03; 2,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,35</t>
+          <t>-1,67; 1,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 170,91</t>
+          <t>-23,99; 57,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,89; 127,44</t>
+          <t>-9,13; 107,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 61,81</t>
+          <t>-24,6; 89,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,99; 120,36</t>
+          <t>-42,89; 70,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,66</t>
+          <t>0,06; 2,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,28</t>
+          <t>0,21; 2,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,23</t>
+          <t>-0,78; 1,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,5</t>
+          <t>-0,73; 1,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 57,01</t>
+          <t>1,01; 52,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 107,63</t>
+          <t>3,55; 58,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 89,14</t>
+          <t>-16,12; 32,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 73,02</t>
+          <t>-26,89; 65,39</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23,86%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,38%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 2,26</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 2,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 1,26</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 0,97</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 52,77</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 58,88</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-16,12; 32,95</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-22,73; 51,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 4,1</t>
+          <t>-0,3; 4,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,78</t>
+          <t>-2,62; 1,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,61</t>
+          <t>-2,75; 1,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,23</t>
+          <t>-3,33; 1,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 163,22</t>
+          <t>-9,3; 182,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 55,33</t>
+          <t>-47,54; 48,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-50,44; 54,05</t>
+          <t>-47,48; 54,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 183,51</t>
+          <t>-79,64; 230,12</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,17</t>
+          <t>-1,65; 2,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,57</t>
+          <t>-0,5; 3,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,93</t>
+          <t>-1,21; 2,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,86</t>
+          <t>-0,87; 1,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 65,2</t>
+          <t>-23,76; 62,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 104,53</t>
+          <t>-10,55; 97,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 66,57</t>
+          <t>-27,83; 83,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,93; 181,83</t>
+          <t>-34,75; 212,45</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,4</t>
+          <t>-0,35; 4,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,23</t>
+          <t>0,3; 6,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,97</t>
+          <t>-2,04; 3,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,17</t>
+          <t>-2,38; 2,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 170,91</t>
+          <t>-10,69; 167,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 127,44</t>
+          <t>3,58; 129,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 61,81</t>
+          <t>-28,89; 69,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,57; 104,05</t>
+          <t>-60,43; 102,39</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,66</t>
+          <t>-1,69; 2,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,28</t>
+          <t>-0,59; 3,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,23</t>
+          <t>-1,01; 2,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 1,41</t>
+          <t>-1,5; 1,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 57,01</t>
+          <t>-23,91; 64,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 107,63</t>
+          <t>-12,1; 95,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 89,14</t>
+          <t>-25,66; 89,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 70,66</t>
+          <t>-38,51; 81,09</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,26</t>
+          <t>-0,11; 2,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,49</t>
+          <t>0,36; 2,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,26</t>
+          <t>-0,78; 1,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,14</t>
+          <t>-0,74; 1,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 52,77</t>
+          <t>-1,82; 52,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 58,88</t>
+          <t>6,58; 57,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 32,95</t>
+          <t>-16,1; 32,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 65,39</t>
+          <t>-25,53; 59,69</t>
         </is>
       </c>
     </row>
